--- a/mpdc/Configs/采集结果.xlsx
+++ b/mpdc/Configs/采集结果.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>标题</t>
+  </si>
+  <si>
+    <t>网址</t>
   </si>
   <si>
     <t>用户ID</t>
@@ -938,22 +941,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -969,6 +973,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="3"/>
